--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1633440.76047715</v>
+        <v>-1635390.98630571</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>220.7163493530122</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>111.5796961224102</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>304.9854711073841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>5.625449562637044</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4849635328045</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>97.72840025712621</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>210.7855413993644</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4040534897967</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>33.80998328326113</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>54.65520119711156</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>334.8396426569624</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>16.49665477297183</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>107.0058887732178</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>10.43941339835971</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>92.54538492870562</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.9606397709136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7646186249858</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>193.3558904388788</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>136.0130338575996</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>44.24486909554432</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>83.22762595891399</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.2019137067705</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>97.53853895610952</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857203</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941868</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1122.289321392933</v>
+        <v>962.3492078183972</v>
       </c>
       <c r="C2" t="n">
-        <v>753.3268044525212</v>
+        <v>962.3492078183972</v>
       </c>
       <c r="D2" t="n">
-        <v>395.0611058457707</v>
+        <v>604.0835092116466</v>
       </c>
       <c r="E2" t="n">
-        <v>395.0611058457707</v>
+        <v>604.0835092116466</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>604.0835092116466</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2529.413637788705</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2310.778970760768</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.01718539886</v>
       </c>
       <c r="V2" t="n">
-        <v>1861.657816727169</v>
+        <v>1725.954298055289</v>
       </c>
       <c r="W2" t="n">
-        <v>1508.889161457055</v>
+        <v>1725.954298055289</v>
       </c>
       <c r="X2" t="n">
-        <v>1508.889161457055</v>
+        <v>1352.488539794209</v>
       </c>
       <c r="Y2" t="n">
-        <v>1508.889161457055</v>
+        <v>962.3492078183972</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.27673242182055</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>70.59446013632859</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>599.9965092447771</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W4" t="n">
-        <v>76.27673242182055</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X4" t="n">
-        <v>76.27673242182055</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.27673242182055</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1421.217123115521</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C5" t="n">
-        <v>1421.217123115521</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D5" t="n">
-        <v>1062.95142450877</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.217123115521</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1421.217123115521</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>479.6890627586768</v>
+        <v>672.9217102699579</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1701.775251950352</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.775251950352</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>642.0360535765544</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990285</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014473</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.48784383890961</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C10" t="n">
-        <v>64.48784383890961</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D10" t="n">
-        <v>64.48784383890961</v>
+        <v>477.919485916526</v>
       </c>
       <c r="E10" t="n">
-        <v>64.48784383890961</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>64.48784383890961</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691493</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691493</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691493</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691493</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2520.760934363149</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1405.43608376123</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1405.43608376123</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1405.436083761226</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324574</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324574</v>
+        <v>1116.018913724265</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5285,16 +5285,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1302.184332552866</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1302.184332552866</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.499844346979</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>758.0826743100185</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0826743100185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>303.4575213834697</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698953</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>992.6121767939883</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>703.4835380075465</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>703.4835380075465</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>414.0663679705859</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>414.0663679705859</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.0663679705859</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.8614782555914</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C22" t="n">
-        <v>403.8614782555914</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>181.2854005096939</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5099430858311</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5099430858311</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y22" t="n">
-        <v>585.5099430858311</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>358.8683222506741</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
         <v>208.7516828383384</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1415.884034490457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1415.884034490457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1192.098619279963</v>
+        <v>1400.392493834559</v>
       </c>
       <c r="U25" t="n">
-        <v>902.9699804935216</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="V25" t="n">
-        <v>648.2854922876347</v>
+        <v>1111.263855048118</v>
       </c>
       <c r="W25" t="n">
-        <v>358.8683222506741</v>
+        <v>821.846685011157</v>
       </c>
       <c r="X25" t="n">
-        <v>358.8683222506741</v>
+        <v>821.846685011157</v>
       </c>
       <c r="Y25" t="n">
-        <v>358.8683222506741</v>
+        <v>821.846685011157</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>410.874530133163</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890052</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2507.25999687553</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,22 +6616,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
         <v>1688.186490350129</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>474.8900731662877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,13 +7315,13 @@
         <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010312</v>
@@ -7391,37 +7391,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,16 +7430,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113633</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113633</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.83804904622824</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>15.83804904622875</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>32.78140656352457</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.73797368291358</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>62.91120742583806</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>223.6742649934482</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>297.2466435761029</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N45" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>193.0678206677828</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>22.76678736275079</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161.6213715359908</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.0021761296836</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.62401358118115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.78294243340341</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>28.19167061951049</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>89.69662153143759</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>104.370603922668</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>65.68620240862214</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.7624386970223</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.0090221022797</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1287047.939633065</v>
+        <v>1287047.939633066</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>77466.06243016744</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754176</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78205.81194754176</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78205.81194754178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754172</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642839</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121444.2179016484</v>
+        <v>121444.2179016485</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007517</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.73165600752</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007498</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26497,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716805.1127494349</v>
+        <v>-716921.0656133414</v>
       </c>
       <c r="C6" t="n">
-        <v>-148671.949792902</v>
+        <v>-148671.9497929019</v>
       </c>
       <c r="D6" t="n">
         <v>-148671.949792902</v>
       </c>
       <c r="E6" t="n">
-        <v>-546858.2821340784</v>
+        <v>-546955.7412600504</v>
       </c>
       <c r="F6" t="n">
-        <v>-21698.24565718233</v>
+        <v>-21795.70478315456</v>
       </c>
       <c r="G6" t="n">
-        <v>-21698.2456571824</v>
+        <v>-21795.70478315449</v>
       </c>
       <c r="H6" t="n">
-        <v>-21698.2456571824</v>
+        <v>-21795.70478315452</v>
       </c>
       <c r="I6" t="n">
-        <v>-21698.24565718233</v>
+        <v>-21795.70478315451</v>
       </c>
       <c r="J6" t="n">
         <v>-276875.1790272305</v>
       </c>
       <c r="K6" t="n">
-        <v>-45946.44773092507</v>
+        <v>-45946.44773092488</v>
       </c>
       <c r="L6" t="n">
-        <v>-45946.44773092501</v>
+        <v>-45946.44773092499</v>
       </c>
       <c r="M6" t="n">
         <v>-180747.4629647621</v>
       </c>
       <c r="N6" t="n">
-        <v>-45946.44773092498</v>
+        <v>-45946.44773092499</v>
       </c>
       <c r="O6" t="n">
-        <v>-100451.9598346375</v>
+        <v>-100451.9598346376</v>
       </c>
       <c r="P6" t="n">
-        <v>-45946.447730925</v>
+        <v>-45946.44773092496</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>62.83601668656135</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>132.1305094854079</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>48.93679172303165</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.8975002213186</v>
       </c>
       <c r="E5" t="n">
-        <v>279.5263165824651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>252.4718909587166</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>197.4824421267164</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>19.84339896372052</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>390.3793909687396</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>39.42807387335139</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.8703888606912</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.8510818313024</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>166.413487634168</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>239.8748214950492</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>373.6013019241296</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.7510064679877</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>462.5180961366875</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>213.4866460137773</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37862,25 +37862,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494725</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>630.4412169741157</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N45" t="n">
-        <v>420.3639292382673</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
@@ -38114,7 +38114,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
